--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="demo ghi dữ liệu" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
